--- a/Lab1/Lab1_Data.xlsx
+++ b/Lab1/Lab1_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush Rath\Documents\Notes\ECE183DX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush Rath\Documents\GitHub\EE183DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED94635E-9F01-47B0-A763-C376E38AC9ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2F2BA-61A1-4004-9DD7-3A54E4A95095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{11BE46A3-F3F7-42E6-BC03-A54B8A33695B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Wheel Diameter:</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>measured(rad)</t>
-  </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
   </si>
   <si>
     <t>Regression Statistics</t>
@@ -168,9 +165,6 @@
     <t>[1 1 3 1 2 2 3 3 2 2 3 3 3 1 4 3 2 2 2 2 1 2 3 3 2 2 2 2 2 3 2 2 2 1 1 2 2 3 2 2 2 2 1 2 2 1 2 2 2 3 3 2 1 2 1 3 2 3 3 1 3 3 3 2 2 3 1 2 3 1 2 2 3 3 3 2 1 2 1 2 2 2 2 2 2 2 2 1 2 2 2 1 3 2 2 3 4 3 2 4 1 2 1 4 2 2 2 0 2 2 2 1 0 2 3 1 2 1 2 2 2 2 1 2 2 2 2 2 3 3 2 2 3 2 2 1 2 2 2 3 3 3 2 3 3 2 2 2 2 3 2 2 2 3 2 2 2 2 2 1 1 3 2]</t>
   </si>
   <si>
-    <t>Gyroscope data at rest</t>
-  </si>
-  <si>
     <t>Formatted for matlab</t>
   </si>
   <si>
@@ -214,6 +208,18 @@
   </si>
   <si>
     <t>94mm</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Magnetometer Model</t>
+  </si>
+  <si>
+    <t>Gyroscope output at rest</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Raw_Magnetometer!$A$1:$A$434</c:f>
+              <c:f>Raw_Magnetometer!$A$2:$A$435</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="434"/>
@@ -1751,7 +1757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Raw_Magnetometer!$B$1:$B$434</c:f>
+              <c:f>Raw_Magnetometer!$B$2:$B$435</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="434"/>
@@ -3063,7 +3069,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CED6-4685-BB90-8F386A71376F}"/>
+              <c16:uniqueId val="{00000000-C24D-4C97-BCE4-25661AD73F99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3421,7 +3427,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calibrated_Magnetometer!$B$1:$B$145</c:f>
+              <c:f>Calibrated_Magnetometer!$B$2:$B$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="145"/>
@@ -3865,7 +3871,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calibrated_Magnetometer!$C$1:$C$145</c:f>
+              <c:f>Calibrated_Magnetometer!$C$2:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="145"/>
@@ -4186,7 +4192,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calibrated_Magnetometer!$A$1:$A$308</c:f>
+              <c:f>Calibrated_Magnetometer!$A$2:$A$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="308"/>
@@ -4795,7 +4801,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calibrated_Magnetometer!$B$1:$B$308</c:f>
+              <c:f>Calibrated_Magnetometer!$B$2:$B$309</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="308"/>
@@ -12742,27 +12748,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>429</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383369E7-8553-4800-AA91-14140B6C430B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12785,13 +12793,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12821,13 +12829,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13472,7 +13480,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>214.5</v>
@@ -13493,7 +13501,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>292</v>
@@ -13532,60 +13540,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EEE68B-5665-476F-AC51-B12678C6F7EB}">
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D436"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="E418" sqref="E418"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>85</v>
-      </c>
-      <c r="B1">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>27</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -13593,12 +13602,12 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -13606,42 +13615,42 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -13649,15 +13658,15 @@
         <v>85</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -13665,28 +13674,28 @@
         <v>84</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>28</v>
@@ -13694,31 +13703,31 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>29</v>
@@ -13737,20 +13746,20 @@
         <v>85</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>28</v>
@@ -13758,7 +13767,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>28</v>
@@ -13769,63 +13778,63 @@
         <v>85</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -13833,7 +13842,7 @@
         <v>84</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -13841,15 +13850,15 @@
         <v>84</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -13857,7 +13866,7 @@
         <v>85</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -13865,39 +13874,39 @@
         <v>85</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -13905,7 +13914,7 @@
         <v>85</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -13913,28 +13922,28 @@
         <v>85</v>
       </c>
       <c r="B46">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>29</v>
@@ -13945,12 +13954,12 @@
         <v>85</v>
       </c>
       <c r="B50">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>27</v>
@@ -13969,20 +13978,20 @@
         <v>84</v>
       </c>
       <c r="B53">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B55">
         <v>28</v>
@@ -13990,10 +13999,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -14001,68 +14010,68 @@
         <v>85</v>
       </c>
       <c r="B57">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>33</v>
@@ -14070,10 +14079,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -14081,7 +14090,7 @@
         <v>92</v>
       </c>
       <c r="B67">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -14097,15 +14106,15 @@
         <v>92</v>
       </c>
       <c r="B69">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -14118,10 +14127,10 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -14129,15 +14138,15 @@
         <v>93</v>
       </c>
       <c r="B73">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -14145,7 +14154,7 @@
         <v>94</v>
       </c>
       <c r="B75">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -14153,15 +14162,15 @@
         <v>94</v>
       </c>
       <c r="B76">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -14169,7 +14178,7 @@
         <v>95</v>
       </c>
       <c r="B78">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -14185,12 +14194,12 @@
         <v>95</v>
       </c>
       <c r="B80">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B81">
         <v>47</v>
@@ -14198,39 +14207,39 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B83">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>50</v>
@@ -14241,28 +14250,28 @@
         <v>100</v>
       </c>
       <c r="B87">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90">
         <v>53</v>
@@ -14270,10 +14279,10 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -14281,20 +14290,20 @@
         <v>103</v>
       </c>
       <c r="B92">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>56</v>
@@ -14305,55 +14314,55 @@
         <v>106</v>
       </c>
       <c r="B95">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B100">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -14369,15 +14378,15 @@
         <v>114</v>
       </c>
       <c r="B103">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B104">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -14385,20 +14394,20 @@
         <v>116</v>
       </c>
       <c r="B105">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107">
         <v>62</v>
@@ -14406,7 +14415,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B108">
         <v>62</v>
@@ -14414,34 +14423,34 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -14449,52 +14458,52 @@
         <v>122</v>
       </c>
       <c r="B113">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B117">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B118">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>63</v>
@@ -14502,26 +14511,26 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -14537,12 +14546,12 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>63</v>
@@ -14550,26 +14559,26 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -14577,20 +14586,20 @@
         <v>125</v>
       </c>
       <c r="B129">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B130">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B131">
         <v>63</v>
@@ -14598,26 +14607,26 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B132">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -14625,12 +14634,12 @@
         <v>127</v>
       </c>
       <c r="B135">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B136">
         <v>62</v>
@@ -14646,10 +14655,10 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B138">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -14657,12 +14666,12 @@
         <v>131</v>
       </c>
       <c r="B139">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140">
         <v>63</v>
@@ -14670,10 +14679,10 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B141">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -14681,20 +14690,20 @@
         <v>134</v>
       </c>
       <c r="B142">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144">
         <v>60</v>
@@ -14710,10 +14719,10 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B146">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -14721,28 +14730,28 @@
         <v>140</v>
       </c>
       <c r="B147">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B149">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B150">
         <v>56</v>
@@ -14750,7 +14759,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B151">
         <v>56</v>
@@ -14758,10 +14767,10 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B152">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -14769,20 +14778,20 @@
         <v>146</v>
       </c>
       <c r="B153">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B154">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B155">
         <v>53</v>
@@ -14790,66 +14799,66 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B156">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B158">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B159">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B160">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B162">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B163">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -14857,7 +14866,7 @@
         <v>155</v>
       </c>
       <c r="B164">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -14870,23 +14879,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B166">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B167">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B168">
         <v>42</v>
@@ -14894,10 +14903,10 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B169">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -14905,7 +14914,7 @@
         <v>153</v>
       </c>
       <c r="B170">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -14913,15 +14922,15 @@
         <v>153</v>
       </c>
       <c r="B171">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B172">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -14934,10 +14943,10 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -14945,23 +14954,23 @@
         <v>153</v>
       </c>
       <c r="B175">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B176">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B177">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -14969,7 +14978,7 @@
         <v>153</v>
       </c>
       <c r="B178">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -14977,23 +14986,23 @@
         <v>153</v>
       </c>
       <c r="B179">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B180">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B181">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -15009,7 +15018,7 @@
         <v>154</v>
       </c>
       <c r="B183">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -15022,10 +15031,10 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B185">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -15033,52 +15042,52 @@
         <v>155</v>
       </c>
       <c r="B186">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B187">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B188">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B189">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B190">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B191">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B192">
         <v>22</v>
@@ -15089,7 +15098,7 @@
         <v>153</v>
       </c>
       <c r="B193">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -15097,7 +15106,7 @@
         <v>153</v>
       </c>
       <c r="B194">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -15105,68 +15114,68 @@
         <v>153</v>
       </c>
       <c r="B195">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B196">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B197">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B198">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B199">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B200">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B201">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B202">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B203">
         <v>13</v>
@@ -15174,18 +15183,18 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B204">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B205">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -15193,63 +15202,63 @@
         <v>161</v>
       </c>
       <c r="B206">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B207">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B209">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -15257,36 +15266,36 @@
         <v>149</v>
       </c>
       <c r="B214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B215">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B216">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B217">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B218">
         <v>-4</v>
@@ -15294,7 +15303,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B219">
         <v>-4</v>
@@ -15302,15 +15311,15 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B220">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B221">
         <v>-6</v>
@@ -15318,10 +15327,10 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B222">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -15329,28 +15338,28 @@
         <v>134</v>
       </c>
       <c r="B223">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B224">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B225">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B226">
         <v>-5</v>
@@ -15358,18 +15367,18 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B227">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B228">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -15377,20 +15386,20 @@
         <v>133</v>
       </c>
       <c r="B229">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B230">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B231">
         <v>-5</v>
@@ -15398,18 +15407,18 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B232">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B233">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -15417,12 +15426,12 @@
         <v>128</v>
       </c>
       <c r="B234">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B235">
         <v>-5</v>
@@ -15430,7 +15439,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B236">
         <v>-5</v>
@@ -15446,15 +15455,15 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B238">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B239">
         <v>-4</v>
@@ -15462,47 +15471,47 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B240">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B241">
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B242">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B243">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B244">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B245">
         <v>-6</v>
@@ -15510,10 +15519,10 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B246">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -15521,20 +15530,20 @@
         <v>125</v>
       </c>
       <c r="B247">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B248">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B249">
         <v>-5</v>
@@ -15542,23 +15551,23 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B250">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B251">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B252">
         <v>-5</v>
@@ -15566,10 +15575,10 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B253">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -15577,12 +15586,12 @@
         <v>114</v>
       </c>
       <c r="B254">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B255">
         <v>-4</v>
@@ -15590,7 +15599,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B256">
         <v>-4</v>
@@ -15598,7 +15607,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B257">
         <v>-4</v>
@@ -15606,10 +15615,10 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B258">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -15617,84 +15626,84 @@
         <v>109</v>
       </c>
       <c r="B259">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B260">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B261">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B262">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B263">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B264">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -15705,63 +15714,63 @@
         <v>99</v>
       </c>
       <c r="B270">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B271">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B273">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B274">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B275">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B276">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B277">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -15769,12 +15778,12 @@
         <v>92</v>
       </c>
       <c r="B278">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B279">
         <v>13</v>
@@ -15782,10 +15791,10 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B280">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -15793,47 +15802,47 @@
         <v>89</v>
       </c>
       <c r="B281">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B282">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B283">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B284">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B285">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B286">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -15841,7 +15850,7 @@
         <v>85</v>
       </c>
       <c r="B287">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -15849,28 +15858,28 @@
         <v>85</v>
       </c>
       <c r="B288">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B289">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B290">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B291">
         <v>30</v>
@@ -15878,10 +15887,10 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B292">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -15889,28 +15898,28 @@
         <v>86</v>
       </c>
       <c r="B293">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B294">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B295">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B296">
         <v>34</v>
@@ -15918,23 +15927,23 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B297">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B298">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B299">
         <v>37</v>
@@ -15945,7 +15954,7 @@
         <v>88</v>
       </c>
       <c r="B300">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -15953,12 +15962,12 @@
         <v>88</v>
       </c>
       <c r="B301">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B302">
         <v>38</v>
@@ -15966,10 +15975,10 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B303">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -15982,10 +15991,10 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B305">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -15993,28 +16002,28 @@
         <v>87</v>
       </c>
       <c r="B306">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B307">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B308">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B309">
         <v>32</v>
@@ -16022,26 +16031,26 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B310">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B311">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B312">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -16049,7 +16058,7 @@
         <v>87</v>
       </c>
       <c r="B313">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -16057,7 +16066,7 @@
         <v>87</v>
       </c>
       <c r="B314">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -16070,7 +16079,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B316">
         <v>17</v>
@@ -16078,34 +16087,34 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B317">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B318">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B319">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B320">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -16113,7 +16122,7 @@
         <v>94</v>
       </c>
       <c r="B321">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -16121,36 +16130,36 @@
         <v>94</v>
       </c>
       <c r="B322">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B323">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B325">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B326">
         <v>-1</v>
@@ -16158,47 +16167,47 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B327">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B328">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B329">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B330">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B331">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B332">
         <v>-5</v>
@@ -16206,58 +16215,58 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B333">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B334">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B335">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B337">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B339">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -16270,71 +16279,71 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B341">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B342">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B343">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B344">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B345">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B346">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B347">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B348">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B349">
         <v>44</v>
@@ -16342,18 +16351,18 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B350">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B351">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -16361,7 +16370,7 @@
         <v>148</v>
       </c>
       <c r="B352">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -16374,10 +16383,10 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B354">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -16390,90 +16399,90 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B356">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B357">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B358">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B359">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B360">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B361">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B362">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B363">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B364">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B365">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B366">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -16486,23 +16495,23 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B368">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B369">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B370">
         <v>63</v>
@@ -16510,31 +16519,31 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B371">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B372">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B373">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B374">
         <v>63</v>
@@ -16542,31 +16551,31 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B375">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B376">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B377">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B378">
         <v>60</v>
@@ -16574,15 +16583,15 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B379">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B380">
         <v>59</v>
@@ -16590,15 +16599,15 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B381">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B382">
         <v>57</v>
@@ -16606,15 +16615,15 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B383">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B384">
         <v>54</v>
@@ -16622,15 +16631,15 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B385">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B386">
         <v>51</v>
@@ -16641,7 +16650,7 @@
         <v>94</v>
       </c>
       <c r="B387">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -16654,15 +16663,15 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B389">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B390">
         <v>51</v>
@@ -16670,55 +16679,55 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B391">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B392">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B393">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B394">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B395">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B396">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B397">
         <v>55</v>
@@ -16726,42 +16735,42 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B398">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B399">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B400">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B401">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B402">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -16769,7 +16778,7 @@
         <v>98</v>
       </c>
       <c r="B403">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -16782,10 +16791,10 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B405">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -16798,18 +16807,18 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B407">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B408">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -16817,20 +16826,20 @@
         <v>98</v>
       </c>
       <c r="B409">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B410">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B411">
         <v>54</v>
@@ -16838,15 +16847,15 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B412">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B413">
         <v>55</v>
@@ -16862,7 +16871,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B415">
         <v>55</v>
@@ -16870,31 +16879,31 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B416">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B417">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B418">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B419">
         <v>55</v>
@@ -16902,23 +16911,23 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B420">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B421">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B422">
         <v>55</v>
@@ -16926,10 +16935,10 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B423">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -16937,7 +16946,7 @@
         <v>98</v>
       </c>
       <c r="B424">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -16945,39 +16954,39 @@
         <v>98</v>
       </c>
       <c r="B425">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B426">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B427">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B428">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B429">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -16985,78 +16994,87 @@
         <v>98</v>
       </c>
       <c r="B430">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B431">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B432">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B433">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B434">
         <v>56</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="1">
-        <f>AVERAGE(A1:A434)</f>
+      <c r="A435">
+        <v>99</v>
+      </c>
+      <c r="B435">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <f>AVERAGE(A2:A435)</f>
         <v>114.20046082949308</v>
       </c>
-      <c r="B435" s="1">
-        <f>AVERAGE(B1:B434)</f>
+      <c r="B436" s="1">
+        <f>AVERAGE(B2:B435)</f>
         <v>33.313364055299537</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D657B4-7DEC-4AB3-916E-DD3998526A46}">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>18</v>
-      </c>
-      <c r="B1">
-        <v>-28</v>
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>-28</v>
@@ -17064,15 +17082,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>-27</v>
@@ -17080,10 +17098,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -17096,10 +17114,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -17107,15 +17125,15 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>-28</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>-24</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -17123,7 +17141,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-27</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -17136,18 +17154,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-25</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-29</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -17160,23 +17178,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-27</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-27</v>
@@ -17184,7 +17202,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>-27</v>
@@ -17192,18 +17210,18 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>-29</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -17211,28 +17229,28 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>-25</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>-27</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>-26</v>
@@ -17240,15 +17258,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>-27</v>
@@ -17256,175 +17274,175 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>-31</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>-33</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>-36</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>-34</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>-35</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="B33">
-        <v>-34</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="B34">
-        <v>-32</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="B35">
-        <v>-29</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="B36">
-        <v>-28</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="B37">
-        <v>-23</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="B38">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>-33</v>
+        <v>-28</v>
       </c>
       <c r="B39">
-        <v>-18</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="B40">
-        <v>-14</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="B41">
-        <v>-7</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>-30</v>
+        <v>-33</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>-26</v>
+        <v>-29</v>
       </c>
       <c r="B48">
         <v>23</v>
@@ -17432,34 +17450,34 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="B49">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-19</v>
+        <v>-24</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="B51">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="B52">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -17467,12 +17485,12 @@
         <v>-14</v>
       </c>
       <c r="B53">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="B54">
         <v>31</v>
@@ -17480,87 +17498,87 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="B55">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>18</v>
@@ -17568,7 +17586,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B66">
         <v>18</v>
@@ -17576,47 +17594,47 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>30</v>
@@ -17624,15 +17642,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>33</v>
@@ -17643,7 +17661,7 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -17651,12 +17669,12 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>33</v>
@@ -17664,23 +17682,23 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B80">
         <v>35</v>
@@ -17688,82 +17706,82 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="B81">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="B82">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="B83">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="B84">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="B90">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -17771,12 +17789,12 @@
         <v>-33</v>
       </c>
       <c r="B91">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-35</v>
+        <v>-33</v>
       </c>
       <c r="B92">
         <v>-5</v>
@@ -17784,15 +17802,15 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="B93">
-        <v>-9</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="B94">
         <v>-9</v>
@@ -17800,47 +17818,47 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-31</v>
+        <v>-30</v>
       </c>
       <c r="B95">
-        <v>-14</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-28</v>
+        <v>-31</v>
       </c>
       <c r="B96">
-        <v>-18</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="B97">
-        <v>-21</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="B98">
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="B99">
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="B100">
         <v>-23</v>
@@ -17856,79 +17874,79 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="B102">
-        <v>-24</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="B103">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="B104">
-        <v>-28</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="B105">
-        <v>-31</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="B106">
-        <v>-32</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B107">
-        <v>-33</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="B108">
-        <v>-32</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="B109">
-        <v>-33</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B110">
-        <v>-31</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>-31</v>
@@ -17936,15 +17954,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B112">
-        <v>-27</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B113">
         <v>-27</v>
@@ -17955,12 +17973,12 @@
         <v>20</v>
       </c>
       <c r="B114">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115">
         <v>-26</v>
@@ -17968,7 +17986,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B116">
         <v>-26</v>
@@ -17976,15 +17994,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B117">
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B118">
         <v>-27</v>
@@ -17992,58 +18010,58 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B119">
-        <v>-25</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B120">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B121">
-        <v>-23</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B122">
-        <v>-18</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B123">
-        <v>-13</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B124">
-        <v>-9</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B125">
-        <v>-6</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -18051,7 +18069,7 @@
         <v>33</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -18059,7 +18077,7 @@
         <v>33</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -18067,15 +18085,15 @@
         <v>33</v>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B129">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -18088,42 +18106,42 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B131">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B135">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -18131,15 +18149,15 @@
         <v>32</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -18147,60 +18165,60 @@
         <v>31</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B140">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B141">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B142">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B143">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B144">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B145">
         <v>30</v>
@@ -18208,23 +18226,23 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B146">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B147">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="B148">
         <v>33</v>
@@ -18232,7 +18250,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="B149">
         <v>33</v>
@@ -18240,127 +18258,127 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="B150">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="B151">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-16</v>
+        <v>-13</v>
       </c>
       <c r="B152">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-21</v>
+        <v>-16</v>
       </c>
       <c r="B153">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-23</v>
+        <v>-21</v>
       </c>
       <c r="B154">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-27</v>
+        <v>-23</v>
       </c>
       <c r="B155">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="B156">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="B157">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="B159">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="B160">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="B161">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="B162">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="B163">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="B164">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B165">
         <v>33</v>
@@ -18368,15 +18386,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B166">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B167">
         <v>30</v>
@@ -18384,18 +18402,18 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
+        <v>21</v>
+      </c>
+      <c r="B169">
         <v>25</v>
-      </c>
-      <c r="B169">
-        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -18408,7 +18426,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B171">
         <v>18</v>
@@ -18416,10 +18434,10 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B172">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -18432,82 +18450,82 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B174">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B175">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B177">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B179">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B180">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B181">
-        <v>-13</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B182">
-        <v>-18</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B183">
-        <v>-23</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -18520,23 +18538,23 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B185">
-        <v>-27</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B186">
-        <v>-30</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B187">
         <v>-30</v>
@@ -18544,10 +18562,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B188">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -18555,28 +18573,28 @@
         <v>12</v>
       </c>
       <c r="B189">
-        <v>-31</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B190">
-        <v>-28</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B191">
-        <v>-30</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B192">
         <v>-30</v>
@@ -18584,7 +18602,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B193">
         <v>-30</v>
@@ -18592,15 +18610,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B194">
-        <v>-32</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B195">
         <v>-32</v>
@@ -18608,41 +18626,49 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B196">
-        <v>-34</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B197">
-        <v>-31</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B198">
-        <v>-33</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B199">
-        <v>-34</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
+        <v>-3</v>
+      </c>
+      <c r="B200">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>-6</v>
       </c>
-      <c r="B200">
+      <c r="B201">
         <v>-34</v>
       </c>
     </row>
@@ -18656,60 +18682,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E721D09-62C2-4A1F-B86A-5A45CA0130F2}">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
@@ -18733,7 +18759,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <f>D3*360 + F3</f>
@@ -18764,7 +18790,7 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4">
         <f>D4*360 + F4</f>
@@ -18795,7 +18821,7 @@
         <v>336</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <f>D5*360 + F5</f>
@@ -18826,7 +18852,7 @@
         <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <f>D6*360 + F6</f>
@@ -18857,7 +18883,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <f>D7*360 + F7</f>
@@ -18888,7 +18914,7 @@
         <v>341</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <f>(D8*360 + F8)*-1</f>
@@ -18919,7 +18945,7 @@
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <f>(D9*360 + F9)*-1</f>
@@ -18950,7 +18976,7 @@
         <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <f>(D10*360 + F10)*-1</f>
@@ -18981,7 +19007,7 @@
         <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11">
         <f>(D11*360 + F11)*-1</f>
@@ -19009,7 +19035,7 @@
   <dimension ref="A1:D1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1067"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31081,8 +31107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1963C5A7-CCFA-42D5-A77A-3EEAFF34782A}">
   <dimension ref="A1:I1090"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31092,19 +31118,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>0.98944490204113289</v>
@@ -31112,7 +31138,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>0.97900121417518704</v>
@@ -31120,7 +31146,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>0.9789814784742239</v>
@@ -31128,7 +31154,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>15.304838586022838</v>
@@ -31136,7 +31162,7 @@
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>1066</v>
@@ -31144,30 +31170,30 @@
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -31187,7 +31213,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
         <v>1064</v>
@@ -31203,7 +31229,7 @@
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>1065</v>
@@ -31219,33 +31245,33 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
         <v>276.93151364733581</v>
@@ -31274,7 +31300,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4">
         <v>-1.0196373409174688</v>
@@ -31303,19 +31329,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -43054,22 +43080,22 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1/Lab1_Data.xlsx
+++ b/Lab1/Lab1_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush Rath\Documents\GitHub\EE183DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mishka\Desktop\Project\GitHub\EE183DA-Cornhuskers\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2F2BA-61A1-4004-9DD7-3A54E4A95095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" xr2:uid="{11BE46A3-F3F7-42E6-BC03-A54B8A33695B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rangefinder_Misc." sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Mag_Model" sheetId="5" r:id="rId6"/>
     <sheet name="Gyro Data" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>Wheel Diameter:</t>
   </si>
@@ -207,9 +206,6 @@
     <t>Wheel Separation</t>
   </si>
   <si>
-    <t>94mm</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -221,11 +217,26 @@
   <si>
     <t>Gyroscope output at rest</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>322.389*tanh(-5.77E-2(x - 89.714))</t>
+  </si>
+  <si>
+    <t>392.8*tanh(4.743E-2(x -87.646 ))</t>
+  </si>
+  <si>
+    <t>91mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,7 +341,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -363,6 +377,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3067,7 +3082,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C24D-4C97-BCE4-25661AD73F99}"/>
             </c:ext>
@@ -3081,11 +3096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248374639"/>
-        <c:axId val="203560143"/>
+        <c:axId val="405593760"/>
+        <c:axId val="405588272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248374639"/>
+        <c:axId val="405593760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,6 +3143,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3187,12 +3203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203560143"/>
+        <c:crossAx val="405588272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203560143"/>
+        <c:axId val="405588272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,6 +3251,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3294,7 +3311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248374639"/>
+        <c:crossAx val="405593760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3308,14 +3325,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3351,7 +3368,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3879,7 +3896,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1E7-4B4B-B57A-34CA60CC69D0}"/>
             </c:ext>
@@ -3893,11 +3910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201613759"/>
-        <c:axId val="214395247"/>
+        <c:axId val="405583568"/>
+        <c:axId val="405591016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201613759"/>
+        <c:axId val="405583568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3954,12 +3971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214395247"/>
+        <c:crossAx val="405591016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214395247"/>
+        <c:axId val="405591016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201613759"/>
+        <c:crossAx val="405583568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4030,14 +4047,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4073,7 +4090,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4109,6 +4126,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5409,7 +5427,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C18F-4597-AA26-5BE000DE5D22}"/>
             </c:ext>
@@ -5423,11 +5441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125928655"/>
-        <c:axId val="203585935"/>
+        <c:axId val="405591408"/>
+        <c:axId val="405589056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125928655"/>
+        <c:axId val="405591408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,6 +5488,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5529,12 +5548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203585935"/>
+        <c:crossAx val="405589056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203585935"/>
+        <c:axId val="405589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,6 +5596,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5636,7 +5656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125928655"/>
+        <c:crossAx val="405591408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5650,14 +5670,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5693,7 +5713,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5736,6 +5756,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5839,7 +5860,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1D7-430D-93B7-DB0925461AC6}"/>
             </c:ext>
@@ -5853,11 +5874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="250686168"/>
-        <c:axId val="250684992"/>
+        <c:axId val="405585920"/>
+        <c:axId val="405589448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="250686168"/>
+        <c:axId val="405585920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5914,12 +5935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250684992"/>
+        <c:crossAx val="405589448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="250684992"/>
+        <c:axId val="405589448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5976,7 +5997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250686168"/>
+        <c:crossAx val="405585920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6026,7 +6047,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6069,6 +6090,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6172,7 +6194,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5F02-4374-A523-F9842CBF9771}"/>
             </c:ext>
@@ -6186,11 +6208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504124736"/>
-        <c:axId val="504122776"/>
+        <c:axId val="405590232"/>
+        <c:axId val="405591800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504124736"/>
+        <c:axId val="405590232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6247,12 +6269,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504122776"/>
+        <c:crossAx val="405591800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504122776"/>
+        <c:axId val="405591800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6309,7 +6331,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504124736"/>
+        <c:crossAx val="405590232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6359,7 +6381,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6402,6 +6424,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6505,7 +6528,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98AF-4B62-B691-986920456944}"/>
             </c:ext>
@@ -6519,11 +6542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504132968"/>
-        <c:axId val="504135320"/>
+        <c:axId val="405592584"/>
+        <c:axId val="405589840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504132968"/>
+        <c:axId val="405592584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6580,12 +6603,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504135320"/>
+        <c:crossAx val="405589840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504135320"/>
+        <c:axId val="405589840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6642,7 +6665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504132968"/>
+        <c:crossAx val="405592584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6692,7 +6715,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6735,6 +6758,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6838,7 +6862,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5173-4A37-9184-01895E2A5F7E}"/>
             </c:ext>
@@ -6852,11 +6876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504114152"/>
-        <c:axId val="504115720"/>
+        <c:axId val="409660296"/>
+        <c:axId val="409656768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504114152"/>
+        <c:axId val="409660296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,12 +6937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504115720"/>
+        <c:crossAx val="409656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504115720"/>
+        <c:axId val="409656768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,7 +6999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504114152"/>
+        <c:crossAx val="409660296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7025,7 +7049,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7064,6 +7088,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7166,6 +7191,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -7269,7 +7295,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EF6B-4B06-AD54-EDAE5C9F284D}"/>
             </c:ext>
@@ -7283,11 +7309,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504106312"/>
-        <c:axId val="504111408"/>
+        <c:axId val="409655200"/>
+        <c:axId val="409654416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504106312"/>
+        <c:axId val="409655200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,12 +7370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504111408"/>
+        <c:crossAx val="409654416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504111408"/>
+        <c:axId val="409654416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7406,7 +7432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504106312"/>
+        <c:crossAx val="409655200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7456,7 +7482,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7495,6 +7521,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7628,7 +7655,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C12F-4BA4-BA0E-0A9240DF0EA0}"/>
             </c:ext>
@@ -7642,11 +7669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504115328"/>
-        <c:axId val="504114544"/>
+        <c:axId val="409659904"/>
+        <c:axId val="409652848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504115328"/>
+        <c:axId val="409659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7703,12 +7730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504114544"/>
+        <c:crossAx val="409652848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504114544"/>
+        <c:axId val="409652848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7765,7 +7792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504115328"/>
+        <c:crossAx val="409659904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12764,7 +12791,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12807,7 +12834,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12843,7 +12870,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12884,7 +12911,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12922,7 +12949,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12960,7 +12987,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12998,7 +13025,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13021,22 +13048,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>83128</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14262</xdr:rowOff>
+      <xdr:colOff>189808</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>387928</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68866</xdr:rowOff>
+      <xdr:colOff>494608</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13058,23 +13085,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>242046</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5826</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>21515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546846</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>121023</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>310626</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>75303</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13393,11 +13420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6B045C-5F81-4EA4-959E-055C2F490CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13501,7 +13528,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>292</v>
@@ -13545,7 +13572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EEE68B-5665-476F-AC51-B12678C6F7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13556,10 +13583,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -17055,7 +17082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D657B4-7DEC-4AB3-916E-DD3998526A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17066,10 +17093,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -18679,37 +18706,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E721D09-62C2-4A1F-B86A-5A45CA0130F2}">
-  <dimension ref="B1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -18738,7 +18765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -18770,7 +18797,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>30</v>
       </c>
@@ -18801,7 +18828,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>60</v>
       </c>
@@ -18832,7 +18859,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>70</v>
       </c>
@@ -18863,7 +18890,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>90</v>
       </c>
@@ -18894,7 +18921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>110</v>
       </c>
@@ -18925,7 +18952,7 @@
         <v>-701</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>120</v>
       </c>
@@ -18956,7 +18983,7 @@
         <v>-782</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>150</v>
       </c>
@@ -18987,7 +19014,7 @@
         <v>-830</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>180</v>
       </c>
@@ -19018,12 +19045,374 @@
         <v>-827</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>320</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <f>D14*360 + F14</f>
+        <v>320</v>
+      </c>
+      <c r="J14">
+        <f>E14*360  + G14</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>315</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <f>D15*360 + F15</f>
+        <v>315</v>
+      </c>
+      <c r="J15">
+        <f>E15*360  + G15</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>290</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <f>D16*360 + F16</f>
+        <v>290</v>
+      </c>
+      <c r="J16">
+        <f>E16*360  + G16</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <v>110</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>259</v>
+      </c>
+      <c r="G17">
+        <v>351</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17">
+        <f>D17*360 + F17</f>
+        <v>259</v>
+      </c>
+      <c r="J17">
+        <f>E17*360  + G17</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <f>D18*360 + F18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>E18*360  + G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>270</v>
+      </c>
+      <c r="G19">
+        <v>240</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <f>(D19*360 + F19)*-1</f>
+        <v>-270</v>
+      </c>
+      <c r="J19">
+        <f>(E19*360  + G19 ) *-1</f>
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>120</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>315</v>
+      </c>
+      <c r="G20">
+        <v>317</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20">
+        <f>(D20*360 + F20)*-1</f>
+        <v>-315</v>
+      </c>
+      <c r="J20">
+        <f>(E20*360  + G20)*-1</f>
+        <v>-317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>328</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21">
+        <f>(D21*360 + F21)*-1</f>
+        <v>-328</v>
+      </c>
+      <c r="J21">
+        <f>(E21*360  + G21)*-1</f>
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>180</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>325</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22">
+        <f>(D22*360 + F22)*-1</f>
+        <v>-325</v>
+      </c>
+      <c r="J22">
+        <f>(E22*360  + G22)*-1</f>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f xml:space="preserve"> 392.8/360*2*3.14*D24</f>
+        <v>137.04355555555557</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f xml:space="preserve"> 322.389/360*2*3.14*D24</f>
+        <v>112.47794</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19031,7 +19420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDDCFB0-A387-4371-8B89-51F7091D49C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31104,7 +31493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1963C5A7-CCFA-42D5-A77A-3EEAFF34782A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31118,7 +31507,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -43076,7 +43465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F381EBB-4A56-4023-98C5-EA6CB5A933A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43087,7 +43476,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>42</v>

--- a/Lab1/Lab1_Data.xlsx
+++ b/Lab1/Lab1_Data.xlsx
@@ -377,7 +377,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3096,11 +3095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405593760"/>
-        <c:axId val="405588272"/>
+        <c:axId val="393573440"/>
+        <c:axId val="393574224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405593760"/>
+        <c:axId val="393573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,7 +3142,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3203,12 +3201,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405588272"/>
+        <c:crossAx val="393574224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405588272"/>
+        <c:axId val="393574224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3311,7 +3308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405593760"/>
+        <c:crossAx val="393573440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3910,11 +3907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405583568"/>
-        <c:axId val="405591016"/>
+        <c:axId val="393567560"/>
+        <c:axId val="393571480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405583568"/>
+        <c:axId val="393567560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,12 +3968,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405591016"/>
+        <c:crossAx val="393571480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405591016"/>
+        <c:axId val="393571480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405583568"/>
+        <c:crossAx val="393567560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4126,7 +4123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5441,11 +5437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405591408"/>
-        <c:axId val="405589056"/>
+        <c:axId val="393568344"/>
+        <c:axId val="393575008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405591408"/>
+        <c:axId val="393568344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5548,12 +5543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405589056"/>
+        <c:crossAx val="393575008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405589056"/>
+        <c:axId val="393575008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5656,7 +5650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405591408"/>
+        <c:crossAx val="393568344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5874,11 +5868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405585920"/>
-        <c:axId val="405589448"/>
+        <c:axId val="393572264"/>
+        <c:axId val="393572656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405585920"/>
+        <c:axId val="393572264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,12 +5929,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405589448"/>
+        <c:crossAx val="393572656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405589448"/>
+        <c:axId val="393572656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5997,7 +5991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405585920"/>
+        <c:crossAx val="393572264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6208,11 +6202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405590232"/>
-        <c:axId val="405591800"/>
+        <c:axId val="393577752"/>
+        <c:axId val="393578144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405590232"/>
+        <c:axId val="393577752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,12 +6263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405591800"/>
+        <c:crossAx val="393578144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405591800"/>
+        <c:axId val="393578144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6331,7 +6325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405590232"/>
+        <c:crossAx val="393577752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6542,11 +6536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405592584"/>
-        <c:axId val="405589840"/>
+        <c:axId val="393580496"/>
+        <c:axId val="393580104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405592584"/>
+        <c:axId val="393580496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6603,12 +6597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405589840"/>
+        <c:crossAx val="393580104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405589840"/>
+        <c:axId val="393580104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6665,7 +6659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405592584"/>
+        <c:crossAx val="393580496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6876,11 +6870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409660296"/>
-        <c:axId val="409656768"/>
+        <c:axId val="393579320"/>
+        <c:axId val="397546336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409660296"/>
+        <c:axId val="393579320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,12 +6931,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409656768"/>
+        <c:crossAx val="397546336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409656768"/>
+        <c:axId val="397546336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,7 +6993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409660296"/>
+        <c:crossAx val="393579320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7309,11 +7303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409655200"/>
-        <c:axId val="409654416"/>
+        <c:axId val="397546728"/>
+        <c:axId val="397547120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409655200"/>
+        <c:axId val="397546728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7370,12 +7364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409654416"/>
+        <c:crossAx val="397547120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409654416"/>
+        <c:axId val="397547120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7432,7 +7426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409655200"/>
+        <c:crossAx val="397546728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7669,11 +7663,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409659904"/>
-        <c:axId val="409652848"/>
+        <c:axId val="397547512"/>
+        <c:axId val="397553784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409659904"/>
+        <c:axId val="397547512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7730,12 +7724,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409652848"/>
+        <c:crossAx val="397553784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409652848"/>
+        <c:axId val="397553784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,7 +7786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409659904"/>
+        <c:crossAx val="397547512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12791,7 +12785,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12834,7 +12828,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12870,7 +12864,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12911,7 +12905,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12949,7 +12943,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12987,7 +12981,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13025,7 +13019,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13063,7 +13057,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13101,7 +13095,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Lab1/Lab1_Data.xlsx
+++ b/Lab1/Lab1_Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>Wheel Diameter:</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>91mm</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -3095,11 +3098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393573440"/>
-        <c:axId val="393574224"/>
+        <c:axId val="383669280"/>
+        <c:axId val="383669672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393573440"/>
+        <c:axId val="383669280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,12 +3204,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393574224"/>
+        <c:crossAx val="383669672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393574224"/>
+        <c:axId val="383669672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,7 +3311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393573440"/>
+        <c:crossAx val="383669280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3907,11 +3910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393567560"/>
-        <c:axId val="393571480"/>
+        <c:axId val="383675944"/>
+        <c:axId val="383664968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393567560"/>
+        <c:axId val="383675944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,12 +3971,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393571480"/>
+        <c:crossAx val="383664968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393571480"/>
+        <c:axId val="383664968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4030,7 +4033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393567560"/>
+        <c:crossAx val="383675944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5437,11 +5440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393568344"/>
-        <c:axId val="393575008"/>
+        <c:axId val="383676336"/>
+        <c:axId val="383670064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393568344"/>
+        <c:axId val="383676336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5543,12 +5546,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393575008"/>
+        <c:crossAx val="383670064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393575008"/>
+        <c:axId val="383670064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,7 +5653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393568344"/>
+        <c:crossAx val="383676336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5868,11 +5871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393572264"/>
-        <c:axId val="393572656"/>
+        <c:axId val="383671632"/>
+        <c:axId val="383667320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393572264"/>
+        <c:axId val="383671632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5929,12 +5932,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393572656"/>
+        <c:crossAx val="383667320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393572656"/>
+        <c:axId val="383667320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,7 +5994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393572264"/>
+        <c:crossAx val="383671632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6202,11 +6205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393577752"/>
-        <c:axId val="393578144"/>
+        <c:axId val="383673200"/>
+        <c:axId val="387384448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393577752"/>
+        <c:axId val="383673200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,12 +6266,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393578144"/>
+        <c:crossAx val="387384448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393578144"/>
+        <c:axId val="387384448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,7 +6328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393577752"/>
+        <c:crossAx val="383673200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6536,11 +6539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393580496"/>
-        <c:axId val="393580104"/>
+        <c:axId val="387375824"/>
+        <c:axId val="387378176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393580496"/>
+        <c:axId val="387375824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,12 +6600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393580104"/>
+        <c:crossAx val="387378176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393580104"/>
+        <c:axId val="387378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6659,7 +6662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393580496"/>
+        <c:crossAx val="387375824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6870,11 +6873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393579320"/>
-        <c:axId val="397546336"/>
+        <c:axId val="387376608"/>
+        <c:axId val="387375432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393579320"/>
+        <c:axId val="387376608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6931,12 +6934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397546336"/>
+        <c:crossAx val="387375432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397546336"/>
+        <c:axId val="387375432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6993,7 +6996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393579320"/>
+        <c:crossAx val="387376608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7303,11 +7306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397546728"/>
-        <c:axId val="397547120"/>
+        <c:axId val="387378568"/>
+        <c:axId val="387382488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397546728"/>
+        <c:axId val="387378568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7364,12 +7367,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397547120"/>
+        <c:crossAx val="387382488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397547120"/>
+        <c:axId val="387382488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7426,7 +7429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397546728"/>
+        <c:crossAx val="387378568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7663,11 +7666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397547512"/>
-        <c:axId val="397553784"/>
+        <c:axId val="387385232"/>
+        <c:axId val="387379352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397547512"/>
+        <c:axId val="387385232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7724,12 +7727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397553784"/>
+        <c:crossAx val="387379352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397553784"/>
+        <c:axId val="387379352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7786,7 +7789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397547512"/>
+        <c:crossAx val="387385232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12785,7 +12788,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B979B6D7-32D6-4E62-A756-39D08B9CADBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12828,7 +12831,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B877E292-546B-4A63-A8E4-E4CD866FD40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12864,7 +12867,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB849EB3-FF48-43D3-B43B-142602FB0CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12905,7 +12908,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7114E12C-B8B3-4B60-A110-6766F09E714A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12943,7 +12946,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{663B122D-C18C-466F-A386-F55FB188238D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12981,7 +12984,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCE9C7D0-76D3-48A9-BDD6-7A7A74FB45B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13019,7 +13022,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85EADD52-5041-4CC1-87C6-66C10226B1DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13057,7 +13060,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEAFD47A-E80A-4C81-A70A-E0AFF2A5E3C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13095,7 +13098,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB834279-E02D-4F14-A524-49E3AAEDDA55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18701,10 +18704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19395,6 +19398,21 @@
       </c>
       <c r="G26" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <f>51.26/360*2*3.14*D24</f>
+        <v>17.884044444444442</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>660/360*2*3.14*D24</f>
+        <v>230.26666666666668</v>
       </c>
     </row>
   </sheetData>
